--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail10 Features.xlsx
@@ -2261,7 +2261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2272,29 +2272,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2315,115 +2313,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2440,72 +2428,66 @@
         <v>2.372520109176517e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.420548071025001</v>
+        <v>1.62160088032023e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.91652475886754</v>
+        <v>2.756479070085966e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.62160088032023e-06</v>
+        <v>-0.1035646126378717</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.756479070085966e-06</v>
+        <v>0.3153966529410312</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1035646126378717</v>
+        <v>0.1099281246608902</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3153966529410312</v>
+        <v>1.52417638240486</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1099281246608902</v>
+        <v>1.498569916968316</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.419461243445242</v>
+        <v>3.600691198767302</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.498569916968316</v>
+        <v>4.867648917543696e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.600691198767302</v>
+        <v>42396520.60716553</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.867648917543696e-15</v>
+        <v>2.51659333236937e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>42396520.60716553</v>
+        <v>8.749428364889541</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.51659333236937e-06</v>
+        <v>0.0001375960840181623</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8.749428364889541</v>
+        <v>7.678603754875915</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001375960840181623</v>
+        <v>1.404972989557792</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.678603754875915</v>
+        <v>0.008112796603885326</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.404972989557792</v>
+        <v>2.948247684362823</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008112796603885326</v>
+        <v>0.9446582017943125</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.948247684362823</v>
+        <v>1.892068032200224</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9446582017943125</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.892068032200224</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1906359839957835</v>
       </c>
     </row>
@@ -2520,72 +2502,66 @@
         <v>1.770535497624888e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.139407965183165</v>
+        <v>1.203655249856258e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>11.4521170967185</v>
+        <v>2.735543954522367e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.203655249856258e-06</v>
+        <v>-0.1001531103315727</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.735543954522367e-06</v>
+        <v>0.3064099030641199</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1001531103315727</v>
+        <v>0.1036649980548806</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3064099030641199</v>
+        <v>1.571617459132156</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1036649980548806</v>
+        <v>1.591375024550168</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.467095976056284</v>
+        <v>3.396805418906438</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.591375024550168</v>
+        <v>4.611655269214473e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.396805418906438</v>
+        <v>41423484.13059684</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.611655269214473e-15</v>
+        <v>2.632561541819983e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>41423484.13059684</v>
+        <v>7.913162507740659</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.632561541819983e-06</v>
+        <v>0.0001496515093948158</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7.913162507740659</v>
+        <v>8.752690567564226</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001496515093948158</v>
+        <v>1.391811334876709</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.752690567564226</v>
+        <v>0.01146474110259039</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.391811334876709</v>
+        <v>2.765523499444209</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01146474110259039</v>
+        <v>0.9471546724112831</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.765523499444209</v>
+        <v>1.84825138165984</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9471546724112831</v>
+        <v>15</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.84825138165984</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1933891513250209</v>
       </c>
     </row>
@@ -2600,72 +2576,66 @@
         <v>1.351108367512268e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.744907637100599</v>
+        <v>9.105980010886471e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9.753069065695533</v>
+        <v>2.720389566509177e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.105980010886471e-07</v>
+        <v>-0.09547596843709721</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.720389566509177e-06</v>
+        <v>0.299661902338133</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09547596843709721</v>
+        <v>0.09870826751327723</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.299661902338133</v>
+        <v>1.578893634058876</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09870826751327723</v>
+        <v>1.545290152599351</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.479941746857534</v>
+        <v>3.594238340982677</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.545290152599351</v>
+        <v>4.089698293551724e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.594238340982677</v>
+        <v>45081173.59793773</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.089698293551724e-15</v>
+        <v>2.426283004735951e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45081173.59793773</v>
+        <v>8.311543789337097</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.426283004735951e-06</v>
+        <v>0.0001604139751780658</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.311543789337097</v>
+        <v>9.295950586252678</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001604139751780658</v>
+        <v>1.30130472026113</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.295950586252678</v>
+        <v>0.01386212510803136</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.30130472026113</v>
+        <v>2.637260538529766</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01386212510803136</v>
+        <v>0.9475834024850527</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.637260538529766</v>
+        <v>1.849061623723748</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9475834024850527</v>
+        <v>15</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.849061623723748</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1763252512134936</v>
       </c>
     </row>
@@ -2680,72 +2650,66 @@
         <v>1.054807152587677e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.162480929335086</v>
+        <v>7.090727945832198e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.558179196795589</v>
+        <v>2.709289125287469e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.090727945832198e-07</v>
+        <v>-0.09008279646977894</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.709289125287469e-06</v>
+        <v>0.304282658191137</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09008279646977894</v>
+        <v>0.1005314151461774</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.304282658191137</v>
+        <v>1.602392246546821</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1005314151461774</v>
+        <v>1.646045861006833</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.509279347717976</v>
+        <v>3.611713249196003</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.646045861006833</v>
+        <v>4.050218853065596e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.611713249196003</v>
+        <v>46664273.92419115</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.050218853065596e-15</v>
+        <v>2.361847231881409e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>46664273.92419115</v>
+        <v>8.819572131000648</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.361847231881409e-06</v>
+        <v>0.0001700305444109696</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.819572131000648</v>
+        <v>9.733126233829276</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001700305444109696</v>
+        <v>1.24322367093381</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.733126233829276</v>
+        <v>0.01610763045470065</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.24322367093381</v>
+        <v>2.561138061880567</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01610763045470065</v>
+        <v>0.9477930188439356</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.561138061880567</v>
+        <v>1.826661240907104</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9477930188439356</v>
+        <v>13</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.826661240907104</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1642641488706092</v>
       </c>
     </row>
@@ -2760,72 +2724,66 @@
         <v>8.457842806010514e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.317767766855709</v>
+        <v>5.547650624073719e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.477543880291454</v>
+        <v>2.701145736594185e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.547650624073719e-07</v>
+        <v>-0.08169186553389474</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.701145736594185e-06</v>
+        <v>0.3069211659021043</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.08169186553389474</v>
+        <v>0.1006984853651636</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3069211659021043</v>
+        <v>1.591348312391451</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1006984853651636</v>
+        <v>1.515012506103578</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.497919080032305</v>
+        <v>3.594444798052698</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.515012506103578</v>
+        <v>4.089228500342667e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.594444798052698</v>
+        <v>46462088.59403764</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.089228500342667e-15</v>
+        <v>2.367641144654976e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>46462088.59403764</v>
+        <v>8.827522560847918</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.367641144654976e-06</v>
+        <v>0.0001809993919094298</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.827522560847918</v>
+        <v>10.16362072038639</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001809993919094298</v>
+        <v>1.23674097162877</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.16362072038639</v>
+        <v>0.01869708987750304</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.23674097162877</v>
+        <v>2.507151416233333</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01869708987750304</v>
+        <v>0.9468686681389635</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.507151416233333</v>
+        <v>1.839989944550285</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9468686681389635</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.839989944550285</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1601993910621112</v>
       </c>
     </row>
@@ -2840,72 +2798,66 @@
         <v>7.105436934558527e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4037465452996785</v>
+        <v>4.294286519212995e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.57947912409935</v>
+        <v>2.695289026875748e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.294286519212995e-07</v>
+        <v>-0.06917804412773557</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.695289026875748e-06</v>
+        <v>0.2933974267063743</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06917804412773557</v>
+        <v>0.09071046681215374</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2933974267063743</v>
+        <v>1.641594079013447</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.09071046681215374</v>
+        <v>1.696995623745095</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.548777985783783</v>
+        <v>3.380843982846038</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.696995623745095</v>
+        <v>3.907014338202216e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.380843982846038</v>
+        <v>47837970.14450105</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.907014338202216e-15</v>
+        <v>2.360951034768197e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>47837970.14450105</v>
+        <v>8.94109052370842</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.360951034768197e-06</v>
+        <v>0.0001859528659180521</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8.94109052370842</v>
+        <v>9.659440066731939</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001859528659180521</v>
+        <v>1.297134438245348</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.659440066731939</v>
+        <v>0.01735029169165836</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.297134438245348</v>
+        <v>2.5705126286622</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01735029169165836</v>
+        <v>0.952810043377835</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.5705126286622</v>
+        <v>1.787692899597338</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.952810043377835</v>
+        <v>12</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.787692899597338</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1550505728156533</v>
       </c>
     </row>
@@ -2920,72 +2872,66 @@
         <v>6.332249922045636e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.2477510910193526</v>
+        <v>3.347898436625486e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.07780314315900227</v>
+        <v>2.691142410283106e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.347898436625486e-07</v>
+        <v>-0.05492247915067003</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.691142410283106e-06</v>
+        <v>0.272072867402794</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05492247915067003</v>
+        <v>0.07693900417475012</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.272072867402794</v>
+        <v>1.663410613371822</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.07693900417475012</v>
+        <v>1.543283389049705</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.566772414790456</v>
+        <v>3.632400489122666</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.543283389049705</v>
+        <v>3.384603610543575e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.632400489122666</v>
+        <v>56068344.63201158</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.384603610543575e-15</v>
+        <v>2.036705099321162e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>56068344.63201158</v>
+        <v>10.64004051479593</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.036705099321162e-06</v>
+        <v>0.0001712789141858474</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10.64004051479593</v>
+        <v>9.819589332359937</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001712789141858474</v>
+        <v>1.305672183050737</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.819589332359937</v>
+        <v>0.01651545534100621</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.305672183050737</v>
+        <v>2.645382833414331</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01651545534100621</v>
+        <v>0.9539235616498957</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.645382833414331</v>
+        <v>1.791922725458685</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9539235616498957</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.791922725458685</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1755305069838871</v>
       </c>
     </row>
@@ -3000,72 +2946,66 @@
         <v>5.922334311684061e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5694412407410189</v>
+        <v>2.71442564701372e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.353790331908483</v>
+        <v>2.688180469193864e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.71442564701372e-07</v>
+        <v>-0.04271685855546448</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.688180469193864e-06</v>
+        <v>0.2587468692351848</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04271685855546448</v>
+        <v>0.06873152472637126</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2587468692351848</v>
+        <v>1.672935874398579</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.06873152472637126</v>
+        <v>1.607370220933968</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.579220354673663</v>
+        <v>3.338509529642979</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.607370220933968</v>
+        <v>2.47483189662567e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.338509529642979</v>
+        <v>76210209.52394041</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.47483189662567e-15</v>
+        <v>1.501270534544273e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>76210209.52394041</v>
+        <v>14.37381384458348</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.501270534544273e-06</v>
+        <v>0.0001530084852634035</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>14.37381384458348</v>
+        <v>9.311215960400785</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001530084852634035</v>
+        <v>1.339643392755973</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.311215960400785</v>
+        <v>0.01326564328883525</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.339643392755973</v>
+        <v>2.746176972255822</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01326564328883525</v>
+        <v>0.9534352285128972</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.746176972255822</v>
+        <v>1.786669091836086</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9534352285128972</v>
+        <v>15</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.786669091836086</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1930683338306863</v>
       </c>
     </row>
@@ -3442,7 +3382,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.655652553978471</v>
+        <v>1.689800245098505</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.818770420174562</v>
@@ -3531,7 +3471,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.624261765008697</v>
+        <v>1.655129641897936</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.698527077707213</v>
@@ -3620,7 +3560,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.613442284686353</v>
+        <v>1.643104581856077</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.624274113654352</v>
@@ -3709,7 +3649,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.605372631908919</v>
+        <v>1.62867703227672</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.367110665906347</v>
@@ -3798,7 +3738,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.603883489063357</v>
+        <v>1.625445633735659</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.689110268636519</v>
@@ -3887,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605312211315754</v>
+        <v>1.627471199257946</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.579182332349427</v>
@@ -3976,7 +3916,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.584286833017547</v>
+        <v>1.605786762664455</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.538081359546036</v>
@@ -4065,7 +4005,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.562007735021961</v>
+        <v>1.58247380854049</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.469695590235955</v>
@@ -4154,7 +4094,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.552323988323598</v>
+        <v>1.572857784859209</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.485659836145132</v>
@@ -4243,7 +4183,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.544742140385047</v>
+        <v>1.562818804310333</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.75527811677694</v>
@@ -4332,7 +4272,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.55490340432362</v>
+        <v>1.571983899910413</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.521737270935599</v>
@@ -4421,7 +4361,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.569318994172116</v>
+        <v>1.582975990271191</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.694025390607914</v>
@@ -4510,7 +4450,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.573024689160117</v>
+        <v>1.586023964925437</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.723674171084933</v>
@@ -4599,7 +4539,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.615305203702893</v>
+        <v>1.627431472161506</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.477259854630494</v>
@@ -4688,7 +4628,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.651073778509968</v>
+        <v>1.664464337318853</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.893720480381012</v>
@@ -4777,7 +4717,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.686394840372304</v>
+        <v>1.690645353642974</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.62980186894286</v>
@@ -4866,7 +4806,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.734399512857939</v>
+        <v>1.741362952277055</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.017556847400927</v>
@@ -4955,7 +4895,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.783102154082018</v>
+        <v>1.791586816051184</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.349189550334526</v>
@@ -5044,7 +4984,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.803075000964186</v>
+        <v>1.809639526976957</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.192527189551817</v>
@@ -5133,7 +5073,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.807956187447055</v>
+        <v>1.815801386144595</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.56193637106735</v>
@@ -5222,7 +5162,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.786880722135757</v>
+        <v>1.797870369422577</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.256721697496596</v>
@@ -5311,7 +5251,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.723445423863884</v>
+        <v>1.738782360062098</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.110794255024143</v>
@@ -5400,7 +5340,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.700239940408342</v>
+        <v>1.720063371286514</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.448979202017857</v>
@@ -5489,7 +5429,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.710555284163029</v>
+        <v>1.728380763816573</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.857620505290172</v>
@@ -5578,7 +5518,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.707639617164976</v>
+        <v>1.721567687869404</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.94349816783086</v>
@@ -5667,7 +5607,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.698963256709353</v>
+        <v>1.721951443650986</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.211482466838422</v>
@@ -5756,7 +5696,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.708059393381735</v>
+        <v>1.727213317891475</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.029301503115599</v>
@@ -5845,7 +5785,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.712798038432302</v>
+        <v>1.733619278045002</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.039983519044261</v>
@@ -5934,7 +5874,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.709926193341866</v>
+        <v>1.730209270063819</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.221747327293329</v>
@@ -6023,7 +5963,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.682147124502025</v>
+        <v>1.703453796373463</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.880796093537299</v>
@@ -6112,7 +6052,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.67918751001226</v>
+        <v>1.703123285639017</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.874370427791423</v>
@@ -6201,7 +6141,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.64289554959782</v>
+        <v>1.660351280836547</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.881226832430082</v>
@@ -6290,7 +6230,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.643307432417225</v>
+        <v>1.660665769036513</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.865974575039179</v>
@@ -6379,7 +6319,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.635482672846455</v>
+        <v>1.653758473262277</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.914912919627002</v>
@@ -6468,7 +6408,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606762983583085</v>
+        <v>1.626273885718795</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.130648691092014</v>
@@ -6557,7 +6497,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.626949745712404</v>
+        <v>1.642698732037223</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.023534998782666</v>
@@ -6646,7 +6586,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.688769349450837</v>
+        <v>1.699657845037791</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.898542441182013</v>
@@ -6735,7 +6675,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.726770345568908</v>
+        <v>1.731859599579568</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.95668984186198</v>
@@ -6824,7 +6764,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.773703691329682</v>
+        <v>1.770778592888818</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.815930252982691</v>
@@ -6913,7 +6853,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.823692281842079</v>
+        <v>1.819382856990184</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.395760178483652</v>
@@ -7002,7 +6942,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.817772581665768</v>
+        <v>1.816331967608761</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.283705584639335</v>
@@ -7091,7 +7031,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.816054389872677</v>
+        <v>1.818374623884464</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.284691524161043</v>
@@ -7180,7 +7120,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.818349936691123</v>
+        <v>1.822711286000458</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.187874000613632</v>
@@ -7269,7 +7209,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.838493996258406</v>
+        <v>1.84558553594013</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.961882834482099</v>
@@ -7358,7 +7298,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.853813286095464</v>
+        <v>1.86399895429511</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.475609975277605</v>
@@ -7447,7 +7387,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.852742734632234</v>
+        <v>1.865757949290722</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.332701995892789</v>
@@ -7536,7 +7476,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.759725000995006</v>
+        <v>1.79471291726731</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.077414606923651</v>
@@ -7625,7 +7565,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.760261393054776</v>
+        <v>1.794865351505523</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.080947863492247</v>
@@ -7714,7 +7654,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.766862374236288</v>
+        <v>1.80055044448889</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.131527438563221</v>
@@ -7803,7 +7743,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.788058425969575</v>
+        <v>1.820543469082118</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.069068201695834</v>
@@ -7892,7 +7832,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.792959624108642</v>
+        <v>1.830385753393185</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.102342091486366</v>
@@ -7981,7 +7921,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.790500658673015</v>
+        <v>1.829551866986688</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.123257932825571</v>
@@ -8070,7 +8010,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.780950643969309</v>
+        <v>1.825856345268235</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.119160533056191</v>
@@ -8356,7 +8296,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.805771291989246</v>
+        <v>1.826482940621125</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.763894243383024</v>
@@ -8445,7 +8385,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.818492341164068</v>
+        <v>1.843379503769829</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.680786205940322</v>
@@ -8534,7 +8474,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.815711886055065</v>
+        <v>1.846673124584339</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.620238162118165</v>
@@ -8623,7 +8563,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.817364078874047</v>
+        <v>1.844538213060739</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.052749142952185</v>
@@ -8712,7 +8652,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.843660541118798</v>
+        <v>1.870372318753145</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.950995812406075</v>
@@ -8801,7 +8741,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.865531627902158</v>
+        <v>1.903700265275262</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.88363803774546</v>
@@ -8890,7 +8830,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.875239497262361</v>
+        <v>1.918067610780215</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.219748512766008</v>
@@ -8979,7 +8919,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.89325439027523</v>
+        <v>1.937851989239946</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.657518326130631</v>
@@ -9068,7 +9008,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.905625934819907</v>
+        <v>1.953573168111104</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.171703699936917</v>
@@ -9157,7 +9097,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.903697487785103</v>
+        <v>1.953162422086467</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.764535130210473</v>
@@ -9246,7 +9186,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.891335540607247</v>
+        <v>1.939877281945977</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.481986577836267</v>
@@ -9335,7 +9275,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.884990088895107</v>
+        <v>1.931327902123804</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.838763170378989</v>
@@ -9424,7 +9364,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.884599005603785</v>
+        <v>1.936562284761927</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.740050336508772</v>
@@ -9513,7 +9453,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.891190556120721</v>
+        <v>1.940963270971332</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.786263365727872</v>
@@ -9602,7 +9542,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.894083361751712</v>
+        <v>1.955286285145962</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.630292622275012</v>
@@ -9691,7 +9631,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.905865209701832</v>
+        <v>1.967321039963674</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.279521907166426</v>
@@ -9780,7 +9720,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.910710855975306</v>
+        <v>1.973097322448266</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.91156885046467</v>
@@ -9869,7 +9809,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.915198328585885</v>
+        <v>1.978939057663476</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.557717249839716</v>
@@ -9958,7 +9898,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.921746277034401</v>
+        <v>1.990267085328623</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.751971938110741</v>
@@ -10047,7 +9987,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.913906056480223</v>
+        <v>1.987132224261294</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.890569162388469</v>
@@ -10136,7 +10076,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.882194847934382</v>
+        <v>1.946132504308347</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.084702456355877</v>
@@ -10225,7 +10165,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.872435163418473</v>
+        <v>1.930175400388156</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.625440016706793</v>
@@ -10314,7 +10254,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.875938665346252</v>
+        <v>1.924640698075069</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.296500102850199</v>
@@ -10403,7 +10343,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.842458899530487</v>
+        <v>1.893809409383648</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.612184153856604</v>
@@ -10492,7 +10432,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.836791323224917</v>
+        <v>1.891318632094418</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.739512149488788</v>
@@ -10581,7 +10521,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.860085944357623</v>
+        <v>1.914131122009035</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.656513086273444</v>
@@ -10670,7 +10610,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.875094982245324</v>
+        <v>1.931150371460039</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.004218157858067</v>
@@ -10759,7 +10699,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.87711822961755</v>
+        <v>1.929129395784623</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.952024091217441</v>
@@ -10848,7 +10788,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.866953529237841</v>
+        <v>1.921321926052745</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.556979411776322</v>
@@ -10937,7 +10877,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.854040883787593</v>
+        <v>1.902639429100927</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.968255456967347</v>
@@ -11026,7 +10966,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.851322079872651</v>
+        <v>1.899017609591673</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.036721944457186</v>
@@ -11115,7 +11055,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.846704583844436</v>
+        <v>1.890836829870329</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.815891817770024</v>
@@ -11204,7 +11144,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.848556761326096</v>
+        <v>1.891811758898559</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.647347367438173</v>
@@ -11293,7 +11233,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.845392247782519</v>
+        <v>1.892271738102988</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.939511490794692</v>
@@ -11382,7 +11322,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.84447842093247</v>
+        <v>1.893613540394724</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.926615757974504</v>
@@ -11471,7 +11411,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.866709802351403</v>
+        <v>1.921295197516635</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.177728339353473</v>
@@ -11560,7 +11500,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.87074450347671</v>
+        <v>1.927918434385815</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.723089268330669</v>
@@ -11649,7 +11589,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.864888311556547</v>
+        <v>1.928069851586337</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.046616836552364</v>
@@ -11738,7 +11678,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.894165878937722</v>
+        <v>1.956688254736038</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.734507225561488</v>
@@ -11827,7 +11767,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.900221423750691</v>
+        <v>1.961960914608512</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.421845839846307</v>
@@ -11916,7 +11856,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.893038953375549</v>
+        <v>1.952855333017643</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.079322985861163</v>
@@ -12005,7 +11945,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.877435027300797</v>
+        <v>1.940405002562881</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.449165239209878</v>
@@ -12094,7 +12034,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.874726112589954</v>
+        <v>1.936768769071357</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.144256974059849</v>
@@ -12183,7 +12123,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.885976684459659</v>
+        <v>1.948914892902416</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.595252155840268</v>
@@ -12272,7 +12212,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.892776560074434</v>
+        <v>1.957846483357</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.866243615811297</v>
@@ -12361,7 +12301,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.886147494479069</v>
+        <v>1.954835782761991</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.099550433333898</v>
@@ -12450,7 +12390,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.862900621797109</v>
+        <v>1.92987163569798</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.586861869697272</v>
@@ -12539,7 +12479,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.855607759900154</v>
+        <v>1.921692196780752</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.296030460031243</v>
@@ -12628,7 +12568,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.85145372157858</v>
+        <v>1.913840132327235</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.510808873855192</v>
@@ -12717,7 +12657,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.853572478855984</v>
+        <v>1.914162063742526</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.114301054752224</v>
@@ -12806,7 +12746,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.848699757292431</v>
+        <v>1.903940953296789</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.288637320352334</v>
@@ -12895,7 +12835,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.850792077986269</v>
+        <v>1.906747885180336</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.419179450573592</v>
@@ -12984,7 +12924,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.854068763727996</v>
+        <v>1.907373164959671</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.824037337452296</v>
@@ -13270,7 +13210,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.815632464217196</v>
+        <v>1.818506545163268</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.531020037161229</v>
@@ -13359,7 +13299,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.808318375879362</v>
+        <v>1.810902752727094</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.651614977368172</v>
@@ -13448,7 +13388,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.817040791444158</v>
+        <v>1.820027312208979</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.44971824803832</v>
@@ -13537,7 +13477,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.813993315249844</v>
+        <v>1.808178708703719</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.968295702810768</v>
@@ -13626,7 +13566,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.82084082793268</v>
+        <v>1.814038245235242</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.494785429650158</v>
@@ -13715,7 +13655,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.831297878233334</v>
+        <v>1.827685780590355</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.555113789476736</v>
@@ -13804,7 +13744,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.835309519562512</v>
+        <v>1.830280101446056</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.46688162681998</v>
@@ -13893,7 +13833,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.823608483123962</v>
+        <v>1.81568700290519</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.247375923405204</v>
@@ -13982,7 +13922,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.822290134411068</v>
+        <v>1.813203485252728</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.499568347194344</v>
@@ -14071,7 +14011,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.823563092486012</v>
+        <v>1.814478313229262</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.277338849895522</v>
@@ -14160,7 +14100,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.826554008033089</v>
+        <v>1.810662628548702</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.974813740683561</v>
@@ -14249,7 +14189,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.831343048006655</v>
+        <v>1.815542628895529</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.188394348775971</v>
@@ -14338,7 +14278,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.835679011427918</v>
+        <v>1.82286882093608</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.849090206302119</v>
@@ -14427,7 +14367,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.845901664960517</v>
+        <v>1.831723479464905</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.249944760189273</v>
@@ -14516,7 +14456,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.85990729507204</v>
+        <v>1.852355241497048</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.465543446230869</v>
@@ -14605,7 +14545,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.873944654039928</v>
+        <v>1.866852218573898</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.698149836307125</v>
@@ -14694,7 +14634,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.884224986636518</v>
+        <v>1.881653258682386</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.342269948222816</v>
@@ -14783,7 +14723,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.889673480699493</v>
+        <v>1.887187003665618</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.096919790734681</v>
@@ -14872,7 +14812,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.893350871324282</v>
+        <v>1.901336978400767</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.673993930839457</v>
@@ -14961,7 +14901,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.895504392658</v>
+        <v>1.904719022769664</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.602817721158177</v>
@@ -15050,7 +14990,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.875818462814679</v>
+        <v>1.885611651295225</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.693949427100426</v>
@@ -15139,7 +15079,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.863515095263704</v>
+        <v>1.874126738523317</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.898151890215555</v>
@@ -15228,7 +15168,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.869131793834025</v>
+        <v>1.88087537562302</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.303469950888013</v>
@@ -15317,7 +15257,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.853610910736392</v>
+        <v>1.874073532914254</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.756083949775023</v>
@@ -15406,7 +15346,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.851283209963271</v>
+        <v>1.874600371036979</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.788211485384722</v>
@@ -15495,7 +15435,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.854704378098994</v>
+        <v>1.888787346023575</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.2652960280587</v>
@@ -15584,7 +15524,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.859068297103041</v>
+        <v>1.889221888359314</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.150676768788056</v>
@@ -15673,7 +15613,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.858468991937821</v>
+        <v>1.885140784297341</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.406626518396243</v>
@@ -15762,7 +15702,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.858198802726239</v>
+        <v>1.886070153069462</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.781822900077946</v>
@@ -15851,7 +15791,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.843609028547752</v>
+        <v>1.86886703494709</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.969815169149136</v>
@@ -15940,7 +15880,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.841162733939978</v>
+        <v>1.864120705329632</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.648093176834613</v>
@@ -16029,7 +15969,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.829763977094067</v>
+        <v>1.846410954728085</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.344609654034737</v>
@@ -16118,7 +16058,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.834156436265172</v>
+        <v>1.849907517156536</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.8432181842012</v>
@@ -16207,7 +16147,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.840748776105787</v>
+        <v>1.853639915608424</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.756747747218588</v>
@@ -16296,7 +16236,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.828262803911422</v>
+        <v>1.840642699416677</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.391006874798583</v>
@@ -16385,7 +16325,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.840299419609906</v>
+        <v>1.852893532269853</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.93995987513008</v>
@@ -16474,7 +16414,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.855017506694689</v>
+        <v>1.866148012943953</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.64667255663995</v>
@@ -16563,7 +16503,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.856368682908258</v>
+        <v>1.867194754420259</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.323208102177487</v>
@@ -16652,7 +16592,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.87815366224302</v>
+        <v>1.883254787839442</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.978304034700427</v>
@@ -16741,7 +16681,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.886666903075673</v>
+        <v>1.891767662987083</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.961069535762483</v>
@@ -16830,7 +16770,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.882453776995831</v>
+        <v>1.882957421191502</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.997514715251808</v>
@@ -16919,7 +16859,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.88075831743471</v>
+        <v>1.88337186574217</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.454221371045263</v>
@@ -17008,7 +16948,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.879550243587662</v>
+        <v>1.881264410971326</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.698333631532421</v>
@@ -17097,7 +17037,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.886133861971808</v>
+        <v>1.883631585992778</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.782188166532738</v>
@@ -17186,7 +17126,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.889282976147324</v>
+        <v>1.887415302929532</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.608270568072159</v>
@@ -17275,7 +17215,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.889372526126776</v>
+        <v>1.892939443784664</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.274865123426915</v>
@@ -17364,7 +17304,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.891531656905167</v>
+        <v>1.897111889698378</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.771221115663246</v>
@@ -17453,7 +17393,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.88663718655879</v>
+        <v>1.890641954069823</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.73005385599662</v>
@@ -17542,7 +17482,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.882967929892143</v>
+        <v>1.88587985490558</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.776711339297997</v>
@@ -17631,7 +17571,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.89343064091845</v>
+        <v>1.897629075913094</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.804514255352663</v>
@@ -17720,7 +17660,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.895316941662115</v>
+        <v>1.895880556951098</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.745609810499668</v>
@@ -17809,7 +17749,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.890697155836251</v>
+        <v>1.891502558280249</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.995887150158142</v>
@@ -17898,7 +17838,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.890495356310677</v>
+        <v>1.890202032812728</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.81459259258996</v>
@@ -18184,7 +18124,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.8661004247788</v>
+        <v>1.845220038247898</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.751383398032142</v>
@@ -18273,7 +18213,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.865209698265357</v>
+        <v>1.842580046056844</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.835617507160243</v>
@@ -18362,7 +18302,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.873643669551362</v>
+        <v>1.851164525314197</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.926125583778334</v>
@@ -18451,7 +18391,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.872185674944669</v>
+        <v>1.844190555686935</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.957627596165085</v>
@@ -18540,7 +18480,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.878076867664898</v>
+        <v>1.843032519562171</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.501707464675887</v>
@@ -18629,7 +18569,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.883613157654759</v>
+        <v>1.846518174073429</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.478909449492477</v>
@@ -18718,7 +18658,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.87628459756945</v>
+        <v>1.834744780304088</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.665188233958782</v>
@@ -18807,7 +18747,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.872592733288557</v>
+        <v>1.821119035271791</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.687287491374145</v>
@@ -18896,7 +18836,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.862780367992663</v>
+        <v>1.816770437726233</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.562067583713508</v>
@@ -18985,7 +18925,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.863672315012174</v>
+        <v>1.810993222152097</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.660052747776876</v>
@@ -19074,7 +19014,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.868996164931108</v>
+        <v>1.811912038876726</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.644629534354687</v>
@@ -19163,7 +19103,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.875542970601422</v>
+        <v>1.822979439058488</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.298694567666895</v>
@@ -19252,7 +19192,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.881824671119558</v>
+        <v>1.828902291706768</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.204425754609131</v>
@@ -19341,7 +19281,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.889691822991335</v>
+        <v>1.834729706726981</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.156635811695475</v>
@@ -19430,7 +19370,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.904321697549499</v>
+        <v>1.856378496234163</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.469438097423609</v>
@@ -19519,7 +19459,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.91352727254554</v>
+        <v>1.868038103931341</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.777327313108807</v>
@@ -19608,7 +19548,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.917406440681144</v>
+        <v>1.879991900665023</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.818865213193458</v>
@@ -19697,7 +19637,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.920691851598103</v>
+        <v>1.891254379798217</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.814159547914151</v>
@@ -19786,7 +19726,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.92511943088488</v>
+        <v>1.897302921919522</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.081206170367231</v>
@@ -19875,7 +19815,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.926091757282499</v>
+        <v>1.899661347140872</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.81819807561475</v>
@@ -19964,7 +19904,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.919595676148018</v>
+        <v>1.891673438899439</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.065659782307785</v>
@@ -20053,7 +19993,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.904044604597233</v>
+        <v>1.878183612382884</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.346732123827228</v>
@@ -20142,7 +20082,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.897071386894516</v>
+        <v>1.881218367083565</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.219653116845435</v>
@@ -20231,7 +20171,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.903435970468584</v>
+        <v>1.886866177260671</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.551746120867252</v>
@@ -20320,7 +20260,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.900586856112181</v>
+        <v>1.88854403317348</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.776213749980172</v>
@@ -20409,7 +20349,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.902287019960912</v>
+        <v>1.900568634105241</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.738462420904046</v>
@@ -20498,7 +20438,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.902652696495842</v>
+        <v>1.902446319138377</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.236427789993676</v>
@@ -20587,7 +20527,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.892759679327977</v>
+        <v>1.886212241742142</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.868491824694408</v>
@@ -20676,7 +20616,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.885090919908483</v>
+        <v>1.876024825964415</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.541759065566318</v>
@@ -20765,7 +20705,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.866968805037776</v>
+        <v>1.85468521492915</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.83041869543837</v>
@@ -20854,7 +20794,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.863630222555282</v>
+        <v>1.847813709849793</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.752821324953969</v>
@@ -20943,7 +20883,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.85744051338503</v>
+        <v>1.832951725819176</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.969108576899819</v>
@@ -21032,7 +20972,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.859273787338804</v>
+        <v>1.826984271241391</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.847676727574024</v>
@@ -21121,7 +21061,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.856039477126628</v>
+        <v>1.824093180536714</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.901877098921887</v>
@@ -21210,7 +21150,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.848203167294207</v>
+        <v>1.816310997402151</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.004141121002635</v>
@@ -21299,7 +21239,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.853816901414403</v>
+        <v>1.823025598526713</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.613748917179036</v>
@@ -21388,7 +21328,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.87996452864443</v>
+        <v>1.846115574554632</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.709991156782507</v>
@@ -21477,7 +21417,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.887747722472892</v>
+        <v>1.850584715410434</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.813416685926281</v>
@@ -21566,7 +21506,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.891199927183269</v>
+        <v>1.853532000966854</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.798373856515133</v>
@@ -21655,7 +21595,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.903007898541714</v>
+        <v>1.864097375937649</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.05917794354662</v>
@@ -21744,7 +21684,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.89885226549248</v>
+        <v>1.857939864591628</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.371165230481918</v>
@@ -21833,7 +21773,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.904131873267367</v>
+        <v>1.860316897381483</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.063885811157199</v>
@@ -21922,7 +21862,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.912807659588896</v>
+        <v>1.870308640644627</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.315973448613404</v>
@@ -22011,7 +21951,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.922052521773622</v>
+        <v>1.880129279477429</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.263229599426492</v>
@@ -22100,7 +22040,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.931040161800154</v>
+        <v>1.889633537752786</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.352322023041164</v>
@@ -22189,7 +22129,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.933631989823227</v>
+        <v>1.896083415115763</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.366200360100652</v>
@@ -22278,7 +22218,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.932299099096698</v>
+        <v>1.901023687757721</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.907842932844126</v>
@@ -22367,7 +22307,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.931123859676833</v>
+        <v>1.905483512560893</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.508704018908749</v>
@@ -22456,7 +22396,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.930600229816527</v>
+        <v>1.907054200985133</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.736686003295264</v>
@@ -22545,7 +22485,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.93573630507598</v>
+        <v>1.913258138290149</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.083098923853004</v>
@@ -22634,7 +22574,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.933505248354207</v>
+        <v>1.9148186935784</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.810269039265536</v>
@@ -22723,7 +22663,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.927518937773964</v>
+        <v>1.907136507375558</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.032912103494064</v>
@@ -22812,7 +22752,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.930635672951119</v>
+        <v>1.915396367112973</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.65421624361694</v>
@@ -23098,7 +23038,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.717615940214715</v>
+        <v>1.699482845202344</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.634154359848305</v>
@@ -23187,7 +23127,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.716359646809327</v>
+        <v>1.702667543278479</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.201187294167444</v>
@@ -23276,7 +23216,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.723455994601373</v>
+        <v>1.710331830426498</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.714650487740152</v>
@@ -23365,7 +23305,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.71661520384804</v>
+        <v>1.706057919197241</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.406183686065197</v>
@@ -23454,7 +23394,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.737595271476963</v>
+        <v>1.728168311117166</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.470804685250986</v>
@@ -23543,7 +23483,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.745123666843701</v>
+        <v>1.735060515167807</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.716789374193958</v>
@@ -23632,7 +23572,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.758723917181464</v>
+        <v>1.749687613624918</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.725599470333548</v>
@@ -23721,7 +23661,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.76208628749397</v>
+        <v>1.754997686581693</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.45176152436507</v>
@@ -23810,7 +23750,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.773109893314993</v>
+        <v>1.768824543697948</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.380907996577332</v>
@@ -23899,7 +23839,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.771207846621144</v>
+        <v>1.764466054437496</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.410382676469981</v>
@@ -23988,7 +23928,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.768041323306616</v>
+        <v>1.764022975705145</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.409442922464426</v>
@@ -24077,7 +24017,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.7634863101075</v>
+        <v>1.760013865466579</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.676695138554341</v>
@@ -24166,7 +24106,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.765505021570734</v>
+        <v>1.766382545820334</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.899563962698981</v>
@@ -24255,7 +24195,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.764418577428901</v>
+        <v>1.763981468776653</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.761966414524059</v>
@@ -24344,7 +24284,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.770203076608432</v>
+        <v>1.767001183210063</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.826822455371565</v>
@@ -24433,7 +24373,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.771886431580207</v>
+        <v>1.771876430836389</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.418016376444298</v>
@@ -24522,7 +24462,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.786665040400274</v>
+        <v>1.783840306727019</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.53403753071523</v>
@@ -24611,7 +24551,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.778245563067258</v>
+        <v>1.774253492932874</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.473292254480695</v>
@@ -24700,7 +24640,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.786825447512511</v>
+        <v>1.783656917447031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.589226895237739</v>
@@ -24789,7 +24729,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.787079266759913</v>
+        <v>1.783098879874886</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.528746251016696</v>
@@ -24878,7 +24818,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.780335446664296</v>
+        <v>1.776314571043085</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.631675261110919</v>
@@ -24967,7 +24907,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.767353598982901</v>
+        <v>1.765816088272212</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.407904414478785</v>
@@ -25056,7 +24996,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.774967622781185</v>
+        <v>1.765517019731881</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.355023533130861</v>
@@ -25145,7 +25085,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.71549688795387</v>
+        <v>1.716260309507661</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.911395865088388</v>
@@ -25234,7 +25174,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.703326692637705</v>
+        <v>1.704696947379386</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.913739648099705</v>
@@ -25323,7 +25263,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.710801909755035</v>
+        <v>1.713403432283843</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.978701478025346</v>
@@ -25412,7 +25352,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.727947016649131</v>
+        <v>1.724461029884866</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.911567744577782</v>
@@ -25501,7 +25441,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.723112768025959</v>
+        <v>1.716772167283976</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.000105410864046</v>
@@ -25590,7 +25530,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.711808046521014</v>
+        <v>1.707671322438073</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.992118602115637</v>
@@ -25679,7 +25619,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.695358097860687</v>
+        <v>1.692831197846056</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.01297071220813</v>
@@ -25768,7 +25708,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.686875950579008</v>
+        <v>1.679549478631017</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.901214260622934</v>
@@ -25857,7 +25797,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.682650402766532</v>
+        <v>1.675172703743515</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.671052721407113</v>
@@ -25946,7 +25886,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.683091571033782</v>
+        <v>1.674214838273445</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.909884381220148</v>
@@ -26035,7 +25975,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.679269655581729</v>
+        <v>1.66464743212544</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.895210799136321</v>
@@ -26124,7 +26064,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.673329091822983</v>
+        <v>1.659406597939783</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.980439403142382</v>
@@ -26213,7 +26153,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.678032990007609</v>
+        <v>1.663589822637153</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.976906087300052</v>
@@ -26302,7 +26242,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.682607515619307</v>
+        <v>1.667562575119511</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.892375502061552</v>
@@ -26391,7 +26331,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.68912430545501</v>
+        <v>1.674744821147113</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.902557030082501</v>
@@ -26480,7 +26420,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.751302921006078</v>
+        <v>1.728206012818426</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.193891084851023</v>
@@ -26569,7 +26509,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.765584870641769</v>
+        <v>1.74291782975728</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.842003597245403</v>
@@ -26658,7 +26598,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.764012294049469</v>
+        <v>1.743791911090573</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.655536036758422</v>
@@ -26747,7 +26687,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.75603161833931</v>
+        <v>1.744260080423421</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.822917831399822</v>
@@ -26836,7 +26776,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.751182396162252</v>
+        <v>1.742745920621602</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.933471687083462</v>
@@ -26925,7 +26865,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.768163675992904</v>
+        <v>1.758620794339761</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.962652604413784</v>
@@ -27014,7 +26954,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.782054267247979</v>
+        <v>1.776425838115057</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.846097222066651</v>
@@ -27103,7 +27043,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.78270833139084</v>
+        <v>1.782557371424493</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.491349748669726</v>
@@ -27192,7 +27132,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.757919949952137</v>
+        <v>1.768659463328672</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.063217950916703</v>
@@ -27281,7 +27221,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.755093567583008</v>
+        <v>1.774346857462548</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.026905347164094</v>
@@ -27370,7 +27310,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.746018289194275</v>
+        <v>1.770843338697851</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.309973344363025</v>
@@ -27459,7 +27399,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.757756137992319</v>
+        <v>1.782062380327752</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.310488184551808</v>
@@ -27548,7 +27488,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.760824919873869</v>
+        <v>1.788761178562808</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.126542028000373</v>
@@ -27637,7 +27577,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.761775488033494</v>
+        <v>1.791824706101739</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.994619687626731</v>
@@ -27726,7 +27666,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.759046147934449</v>
+        <v>1.792265685196631</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.026477907884042</v>
@@ -28012,7 +27952,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.688201607097698</v>
+        <v>1.709718200530808</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.348740824374252</v>
@@ -28101,7 +28041,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.670546110726312</v>
+        <v>1.693281784937424</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.96234325215794</v>
@@ -28190,7 +28130,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.690053958093096</v>
+        <v>1.713650858931119</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.221690501481566</v>
@@ -28279,7 +28219,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.699210225254657</v>
+        <v>1.716675315996158</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.714825106147264</v>
@@ -28368,7 +28308,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.715715472429747</v>
+        <v>1.729676196416472</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.937633137701482</v>
@@ -28457,7 +28397,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.732162332182313</v>
+        <v>1.744738945373368</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.105803103441285</v>
@@ -28546,7 +28486,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.727438010962827</v>
+        <v>1.732940998300258</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.250861278541754</v>
@@ -28635,7 +28575,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.712085669519212</v>
+        <v>1.718960495877498</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.432712356882676</v>
@@ -28724,7 +28664,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.689025647796468</v>
+        <v>1.703525104335058</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.254961465613068</v>
@@ -28813,7 +28753,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.690409423097532</v>
+        <v>1.70261993825777</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.793738523886625</v>
@@ -28902,7 +28842,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.706348323654999</v>
+        <v>1.718214105326278</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.879276718808041</v>
@@ -28991,7 +28931,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.722833401579485</v>
+        <v>1.730083575056639</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.264141103838404</v>
@@ -29080,7 +29020,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.736388283274819</v>
+        <v>1.744267907550203</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.052963966259519</v>
@@ -29169,7 +29109,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.782772845935809</v>
+        <v>1.784038059265604</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.039436833504055</v>
@@ -29258,7 +29198,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.814267695835753</v>
+        <v>1.815823677723155</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.440495399974404</v>
@@ -29347,7 +29287,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.841654846892089</v>
+        <v>1.840931799258954</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.560599129574182</v>
@@ -29436,7 +29376,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.863285950248258</v>
+        <v>1.865680694805145</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.611952484518663</v>
@@ -29525,7 +29465,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.88758577670545</v>
+        <v>1.892278309730023</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.456505471329196</v>
@@ -29614,7 +29554,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.89404334991434</v>
+        <v>1.900743234441479</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.880891890069452</v>
@@ -29703,7 +29643,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.886915328418268</v>
+        <v>1.897134434733192</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.040872522403308</v>
@@ -29792,7 +29732,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.817907837371143</v>
+        <v>1.840698339730814</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.965285804901475</v>
@@ -29881,7 +29821,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.764576554203789</v>
+        <v>1.798882823622327</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.836051447852098</v>
@@ -29970,7 +29910,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.754009663923506</v>
+        <v>1.787858390689956</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.895912346867859</v>
@@ -30059,7 +29999,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.760362645739728</v>
+        <v>1.793873729245806</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.955346238401004</v>
@@ -30148,7 +30088,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.753170121122884</v>
+        <v>1.785391870196167</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.0263258287072</v>
@@ -30237,7 +30177,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.746788005277127</v>
+        <v>1.781857203913132</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.866573191079314</v>
@@ -30326,7 +30266,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.749515295402122</v>
+        <v>1.787768168361558</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.919030209792943</v>
@@ -30415,7 +30355,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.744324548724919</v>
+        <v>1.77999320968</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.001833147318043</v>
@@ -30504,7 +30444,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.735314180195709</v>
+        <v>1.770610925879648</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.707088514297904</v>
@@ -30593,7 +30533,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.707800018264197</v>
+        <v>1.739590936313741</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.846730407013456</v>
@@ -30682,7 +30622,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.704993796678649</v>
+        <v>1.735130685503401</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.808770944434173</v>
@@ -30771,7 +30711,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.682532033896282</v>
+        <v>1.709099631792185</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.908269463036775</v>
@@ -30860,7 +30800,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.687976253804188</v>
+        <v>1.708363960036536</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.839354266388014</v>
@@ -30949,7 +30889,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.681863186672948</v>
+        <v>1.70048491292067</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.831157763754148</v>
@@ -31038,7 +30978,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.675259535633949</v>
+        <v>1.69437096203565</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.621656738591409</v>
@@ -31127,7 +31067,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.731520234763287</v>
+        <v>1.739265520615409</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.189922253349577</v>
@@ -31216,7 +31156,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.796218120642265</v>
+        <v>1.795366851457202</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.530717980673928</v>
@@ -31305,7 +31245,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.822413459713783</v>
+        <v>1.820147248231429</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.259739386602224</v>
@@ -31394,7 +31334,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.852585421992434</v>
+        <v>1.847367579072579</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.208792283413342</v>
@@ -31483,7 +31423,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.887402769198077</v>
+        <v>1.878956561144518</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.463479131605319</v>
@@ -31572,7 +31512,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.870180213988381</v>
+        <v>1.868778386001623</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.951589289983619</v>
@@ -31661,7 +31601,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.870888678973634</v>
+        <v>1.866766918628183</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.58481307589335</v>
@@ -31750,7 +31690,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.871703185048167</v>
+        <v>1.87252269790562</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.048640870492959</v>
@@ -31839,7 +31779,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.883181861121987</v>
+        <v>1.880991439706942</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.202314023138281</v>
@@ -31928,7 +31868,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.898120694570594</v>
+        <v>1.894093515104705</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.98187304452233</v>
@@ -32017,7 +31957,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.89403757978004</v>
+        <v>1.895409030761272</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.378491649677494</v>
@@ -32106,7 +32046,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.92791862414106</v>
+        <v>1.920686344908855</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.364593434575149</v>
@@ -32195,7 +32135,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.926384607467702</v>
+        <v>1.924400328966229</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.691885655344938</v>
@@ -32284,7 +32224,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.931061874542813</v>
+        <v>1.932690674000585</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.347659214848588</v>
@@ -32373,7 +32313,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.947783610179036</v>
+        <v>1.94121638611182</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.740377436256802</v>
@@ -32462,7 +32402,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.9494457086282</v>
+        <v>1.943247971461738</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.757864467212395</v>
@@ -32551,7 +32491,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.934312490532039</v>
+        <v>1.930698520571024</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.744413358117574</v>
@@ -32640,7 +32580,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.9242358218811</v>
+        <v>1.925630931806837</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.5870341809957</v>
